--- a/test/apps/SuperCalculator/testData.xlsx
+++ b/test/apps/SuperCalculator/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerthebunker/git/WebsiteAutomation/test/e2e/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerthebunker/git/WebsiteAutomation/test/apps/SuperCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6563D1-83BF-5D46-B138-E14D7BE91AD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE8D5D3-932B-1743-B7BC-D7CE758A930A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{EEA41F1D-F66A-6940-9FA8-FD16FE9E2B92}"/>
   </bookViews>
@@ -74,10 +74,10 @@
     <t>_DefaultCompRow</t>
   </si>
   <si>
-    <t>http://juliemr.github.io/protractor-demo/</t>
-  </si>
-  <si>
     <t>http://localhost:3456/</t>
+  </si>
+  <si>
+    <t>https://juliemr.github.io/protractor-demo/</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{AD284E9A-7A12-7C49-A172-2591468636B4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8CD9A422-092A-F944-BF5E-D53AB1B15645}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -841,7 +841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
